--- a/P_esetek/8.1.xlsx
+++ b/P_esetek/8.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\Documents\webshop\webshop\P_esetek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\Anna\gyakorlat\webshop\github\webshop\P_esetek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>...</t>
   </si>
@@ -468,12 +468,18 @@
   </si>
   <si>
     <t>Hibaüzenet.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Medzi Anna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -657,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -737,6 +743,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -749,7 +758,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1099,10 +1108,10 @@
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
@@ -1112,14 +1121,16 @@
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="32">
+        <v>43563.677777777775</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
@@ -1132,7 +1143,9 @@
       <c r="E5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
@@ -1145,7 +1158,9 @@
       <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
@@ -1171,10 +1186,10 @@
       <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="27">
         <v>43563</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="13"/>
       <c r="F9" s="20"/>
     </row>
@@ -1222,7 +1237,9 @@
         <v>28</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1236,7 +1253,9 @@
         <v>30</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -1250,7 +1269,9 @@
         <v>32</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,7 +1285,9 @@
         <v>34</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -1278,7 +1301,9 @@
         <v>36</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
